--- a/planning/datapoints.xlsx
+++ b/planning/datapoints.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>http://localhost:3000/api/v1/datapoints/life-expectancy/?postcode=EC2A%203AR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Life-expectancy at birth</t>
   </si>
@@ -48,16 +45,135 @@
   </si>
   <si>
     <t>years</t>
+  </si>
+  <si>
+    <t>http://atm-data-api.herokuapp.com/api/v1/datapoints/life-expectancy/?postcode=EC2A%203AR</t>
+  </si>
+  <si>
+    <t>Neighbourhood statistics</t>
+  </si>
+  <si>
+    <t>Property house price</t>
+  </si>
+  <si>
+    <t>Number of people living in Households</t>
+  </si>
+  <si>
+    <t>familyId: 143</t>
+  </si>
+  <si>
+    <t>Number of rooms</t>
+  </si>
+  <si>
+    <t>familyId: 151</t>
+  </si>
+  <si>
+    <t>familyId: 2212</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Number of children per household</t>
+  </si>
+  <si>
+    <t>familyId: 791</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>familyId: 266</t>
+  </si>
+  <si>
+    <t>Number of people living in a couple</t>
+  </si>
+  <si>
+    <t>familyId: 193</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>familyId: 17</t>
+  </si>
+  <si>
+    <t>Passport Held</t>
+  </si>
+  <si>
+    <t>familyId: 2531</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>familyId: 183</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>familyId:1943</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>familyId: 9</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>familyId: 75</t>
+  </si>
+  <si>
+    <t>Land use statistics</t>
+  </si>
+  <si>
+    <t>familyId: 1201</t>
+  </si>
+  <si>
+    <t>Distance travel to work</t>
+  </si>
+  <si>
+    <t>familyId: 189</t>
+  </si>
+  <si>
+    <t>Hours worked</t>
+  </si>
+  <si>
+    <t>familyId: 2543</t>
+  </si>
+  <si>
+    <t>Industry of employment</t>
+  </si>
+  <si>
+    <t>familyId: 27</t>
+  </si>
+  <si>
+    <t>Occupation group</t>
+  </si>
+  <si>
+    <t>familyId: 33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,13 +196,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,47 +481,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>77.2</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2" display="http://neighbourhood.statistics.gov.uk/NDE2/Deli/getTables?Areas=6326132&amp;Variables=10971"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>